--- a/data/tipos.xlsx
+++ b/data/tipos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\UFSC\Publications\NEPEM\RBAS\69rbras21seagro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D3A2259-0070-4DC9-8340-8694101D2E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E18CF22-4D14-4975-B25E-D91218BC9CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D1EF1628-1F1F-4D55-BFB1-E4B7ACE89680}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D1EF1628-1F1F-4D55-BFB1-E4B7ACE89680}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -712,7 +712,7 @@
   <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,18 +731,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -750,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -758,47 +758,47 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -806,15 +806,15 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -830,15 +830,15 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -846,23 +846,23 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,47 +870,47 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -918,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -926,15 +926,15 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -942,7 +942,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -950,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -958,15 +958,15 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -974,15 +974,15 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,7 +990,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -998,7 +998,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1006,23 +1006,23 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1046,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1054,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1070,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1086,39 +1086,39 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1126,7 +1126,7 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1158,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1166,7 +1166,7 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1174,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1182,7 +1182,7 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1190,7 +1190,7 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1206,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1222,7 +1222,7 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1238,31 +1238,31 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1270,15 +1270,15 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1286,23 +1286,23 @@
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1310,23 +1310,23 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1334,39 +1334,39 @@
         <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
         <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1382,7 +1382,7 @@
         <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1390,15 +1390,15 @@
         <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1406,31 +1406,31 @@
         <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1438,15 +1438,15 @@
         <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1454,23 +1454,23 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1478,7 +1478,7 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1486,7 +1486,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1494,7 +1494,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1502,15 +1502,15 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1518,15 +1518,15 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1534,23 +1534,23 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1562,6 +1562,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B105">
+    <sortCondition ref="B5:B105"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>